--- a/data/Climat.xlsx
+++ b/data/Climat.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francoisnicot/Desktop/NF Consulting/cours/cours de référence/qualites données/dataQualite_TP/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C7F7F5-345A-9C47-8277-71AD669EC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI " sheetId="2" r:id="rId1"/>
     <sheet name="SI -erreur" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -193,9 +209,6 @@
     <t>présenter la valeur lue en parcourant la courbe à l'aide du pointeur, présenter les valeurs précédentes par mois et par année, par mois glissant de 30 jours centré sur la valeur lue</t>
   </si>
   <si>
-    <t>Sun</t>
-  </si>
-  <si>
     <t>tracer les coubes de chaque mois avec une bibliothèque grapohique python</t>
   </si>
   <si>
@@ -212,12 +225,15 @@
   </si>
   <si>
     <t>implémenter ces lois dans votre application précédente</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -425,6 +441,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -749,21 +773,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -801,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -842,7 +866,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -883,7 +907,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -924,7 +948,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -965,7 +989,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1030,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1071,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1153,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1194,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -1211,7 +1235,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -1252,7 +1276,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -1294,7 +1318,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1359,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -1376,7 +1400,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1482,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1523,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -1540,7 +1564,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -1581,7 +1605,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +1647,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -1664,7 +1688,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -1705,7 +1729,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -1746,7 +1770,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>35</v>
       </c>
@@ -1787,7 +1811,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -1828,7 +1852,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -1869,7 +1893,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1934,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>39</v>
       </c>
@@ -1951,7 +1975,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>40</v>
       </c>
@@ -1990,7 +2014,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2053,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -2060,12 +2084,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>43</v>
       </c>
@@ -2073,7 +2097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -2081,7 +2105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>44</v>
       </c>
@@ -2089,34 +2113,34 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2131,21 +2155,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>0</v>
       </c>
@@ -2183,7 +2207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2248,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2289,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -2306,7 +2330,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2371,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -2388,7 +2412,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +2453,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -2470,7 +2494,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -2511,7 +2535,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2576,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>21</v>
       </c>
@@ -2572,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J14">
         <v>15</v>
@@ -2593,7 +2617,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -2676,7 +2700,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="3:15">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>24</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="18" spans="3:15">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>25</v>
       </c>
@@ -2758,7 +2782,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="19" spans="3:15">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>26</v>
       </c>
@@ -2784,7 +2808,7 @@
         <v>14</v>
       </c>
       <c r="K19">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2799,7 +2823,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="20" spans="3:15">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>27</v>
       </c>
@@ -2840,7 +2864,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="21" spans="3:15">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>28</v>
       </c>
@@ -2881,7 +2905,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="22" spans="3:15">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>29</v>
       </c>
@@ -2922,7 +2946,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="23" spans="3:15">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>30</v>
       </c>
@@ -2963,7 +2987,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="24" spans="3:15">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -3005,7 +3029,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="25" spans="3:15">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="26" spans="3:15">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>33</v>
       </c>
@@ -3087,7 +3111,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="27" spans="3:15">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>34</v>
       </c>
@@ -3128,7 +3152,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="28" spans="3:15">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>35</v>
       </c>
@@ -3169,7 +3193,7 @@
         <v>-9</v>
       </c>
     </row>
-    <row r="29" spans="3:15">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>36</v>
       </c>
@@ -3210,7 +3234,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="30" spans="3:15">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>37</v>
       </c>
@@ -3251,7 +3275,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="31" spans="3:15">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>38</v>
       </c>
@@ -3292,7 +3316,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="32" spans="3:15">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>39</v>
       </c>
@@ -3333,7 +3357,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>40</v>
       </c>
@@ -3372,7 +3396,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>41</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -3442,12 +3466,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -3458,7 +3482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>46</v>
       </c>
@@ -3466,7 +3490,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>44</v>
       </c>
@@ -3474,44 +3498,44 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
